--- a/Manual Testing of Rokomari.xlsx
+++ b/Manual Testing of Rokomari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dipa\SQA\1.MANUAL TESTING\Working Projects on Manual Testing\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\1.MANUAL TESTING\Working Projects on Manual Testing\Manual Testing of Rokomari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834ED54A-C34A-4F2C-902D-4A3CF29A84A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F9E4A1-DFE2-424F-A490-1B0DB7E821E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{C39205FB-2A28-4CA0-A663-3E261F56C036}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C39205FB-2A28-4CA0-A663-3E261F56C036}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Case" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
   <si>
     <t>Product Name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Step Description</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -346,161 +343,6 @@
   </si>
   <si>
     <t>Checking keyboard enter button functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3.Fill up all required field with Valid data
-4.Click on Create Account Button
-5.input the account validation code 
-6.click on Create Account
-</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3. Input an invalid mail
-4.Click on Create Account Button
-5.input validation code 
-6.Click on Submit button</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3. Input same  mail of an existing account
-4.Click on Create Account Button
-5.input validation code 
-6.Click on Submit button</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3. Input same  phone number of an existing account
-4.Click on Create Account Button
-5.input validation code 
-6.Click on Create Account button</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3. Input email with wrong format
-4.Click on Create Account Button
-5.input validation code 
-6.Click on Create Account button</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3. Input phone number with wrong format
-4.Click on Create Account Button
-5.input validation code 
-6.Click on Create Account button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3. 5.keep empty password field 
-4.Click on Create Account Button
-</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. click on facebook button</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. click on Google button</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. input 987654321 as name on name filed
-3.  Click on Create Account button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-www.https://www.rokomari.com/book
-2. input #@@**$% as name on name filed.
-3. Click on Create Account button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-www.https://www.rokomari.com/book
-2.keep empty  name field
-3.   Click on Create Account button </t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3.  put name
-4. put email address
-5. put large phone number than BD region</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2.  put name
-3. put email address
-4. put phone number
-5. put 1 to 8 as password
-6. Click on Create Account button</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3.  put name
-4. put email address
-5. put phone number
-6. copy password from somewhere and paste to the password field</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3.  put name
-4. put email address
-5. put phone number
-6. put black space as password</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2. Click on Sign Up button
-3.  put name
-4. put email address
-5. put phone number
-6. click eye icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-www.https://www.rokomari.com/book
-2.Copy paste text in every field
-3.    Click on Create Account button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-www.https://www.rokomari.com/book
-2.  Enter tab in every field
-3.  Click on Create Account
-</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-www.https://www.rokomari.com/book
-2.Enter enter in every field 
-3.Click on Create Account button</t>
   </si>
   <si>
     <t xml:space="preserve">User can register and able to create an account </t>
@@ -1056,7 +898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1317,19 +1159,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1408,12 +1237,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1533,9 +1406,6 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,27 +1415,45 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1577,11 +1465,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="3" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1592,11 +1498,11 @@
     <xf numFmtId="0" fontId="18" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,44 +1522,20 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="3" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="3" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="3" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2285,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F340E2-77DE-4E54-8030-3D3B5AC6F412}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2296,8 +2178,8 @@
     <col min="1" max="2" width="19.26953125" style="14" customWidth="1"/>
     <col min="3" max="3" width="22" style="14" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.453125" customWidth="1"/>
-    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
     <col min="7" max="7" width="24.7265625" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
@@ -2305,56 +2187,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3">
         <v>45055</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="63" t="s">
+      <c r="H1" s="3">
+        <v>45055</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="64"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="59" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="7">
-        <f>COUNTIF(H7:H26, "PASS")</f>
+        <f>COUNTIF(H8:H27, "PASS")</f>
         <v>13</v>
       </c>
       <c r="K2" s="5"/>
@@ -2362,17 +2248,17 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>11</v>
@@ -2382,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="9">
-        <f>COUNTIF(H7:H26, "Fail")</f>
+        <f>COUNTIF(H8:H27, "Fail")</f>
         <v>7</v>
       </c>
       <c r="K3" s="5"/>
@@ -2390,13 +2276,13 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="59" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6"/>
@@ -2408,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="10">
-        <f>COUNTIF(I7:I16, "WARNING")</f>
+        <f>COUNTIF(I8:I17, "WARNING")</f>
         <v>0</v>
       </c>
       <c r="K4" s="5"/>
@@ -2416,20 +2302,20 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="47">
         <f>SUM(J2:J3:J4)</f>
         <v>20</v>
       </c>
@@ -2438,90 +2324,60 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="93" t="s">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C7" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="H7" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="133.5" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="111" customHeight="1">
+    </row>
+    <row r="8" spans="1:16" ht="133.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>80</v>
+      </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>164</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="99"/>
+      <c r="G8" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2531,420 +2387,393 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="101.5">
+    <row r="9" spans="1:16" ht="111" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="61"/>
+        <v>28</v>
+      </c>
+      <c r="B9" s="66"/>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="101.5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="43.5">
       <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="101.5">
+    <row r="11" spans="1:16" ht="58">
       <c r="A11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="B11" s="66"/>
       <c r="C11" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>28</v>
+        <v>167</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="101.5">
+    <row r="12" spans="1:16" ht="58">
       <c r="A12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="61"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="66"/>
       <c r="C12" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>142</v>
+        <v>165</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="87">
+    <row r="13" spans="1:16" ht="43.5">
       <c r="A13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="61"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="66"/>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>32</v>
+        <v>169</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="58">
+    <row r="14" spans="1:16" ht="43.5">
       <c r="A14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="61"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="66"/>
       <c r="C14" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="58">
+    <row r="15" spans="1:16" ht="29">
       <c r="A15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="61"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="66"/>
       <c r="C15" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="58">
+    <row r="16" spans="1:16" ht="29">
       <c r="A16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="61"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="66"/>
       <c r="C16" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="58">
+    <row r="17" spans="1:13" ht="43.5">
       <c r="A17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="16" t="s">
-        <v>93</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="99"/>
+      <c r="G17" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="58">
+    <row r="18" spans="1:13" ht="29">
       <c r="A18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="12" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>32</v>
+        <v>171</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="87">
+    <row r="19" spans="1:13" ht="29">
       <c r="A19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="61"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="66"/>
       <c r="C19" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="99"/>
+      <c r="G19" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="101.5">
+    <row r="20" spans="1:13" ht="58">
       <c r="A20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>40</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="116">
+    <row r="21" spans="1:13" ht="72.5">
       <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="12" t="s">
-        <v>97</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>151</v>
+        <v>173</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="99"/>
+      <c r="G21" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="101.5">
+    <row r="22" spans="1:13" ht="43.5">
       <c r="A22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="61"/>
+        <v>42</v>
+      </c>
+      <c r="B22" s="66"/>
       <c r="C22" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>152</v>
+        <v>48</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="99"/>
+      <c r="G22" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="101.5">
+    <row r="23" spans="1:13" ht="43.5">
       <c r="A23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="61"/>
+        <v>43</v>
+      </c>
+      <c r="B23" s="66"/>
       <c r="C23" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>143</v>
+        <v>48</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="99"/>
+      <c r="G23" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2953,91 +2782,111 @@
     </row>
     <row r="24" spans="1:13" ht="72.5">
       <c r="A24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="61"/>
+        <v>44</v>
+      </c>
+      <c r="B24" s="66"/>
       <c r="C24" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>153</v>
+        <v>48</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="99"/>
+      <c r="G24" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="72.5">
+    <row r="25" spans="1:13" ht="43.5">
       <c r="A25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="61"/>
+        <v>45</v>
+      </c>
+      <c r="B25" s="66"/>
       <c r="C25" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>153</v>
+        <v>48</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="99"/>
+      <c r="G25" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="58">
+    <row r="26" spans="1:13" ht="29">
       <c r="A26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="62"/>
+        <v>46</v>
+      </c>
+      <c r="B26" s="66"/>
       <c r="C26" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>153</v>
+        <v>174</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="99"/>
+      <c r="G26" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
+    <row r="27" spans="1:13" ht="29">
+      <c r="A27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="99"/>
+      <c r="G27" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:B26"/>
+  <mergeCells count="9">
+    <mergeCell ref="B8:B27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:C2"/>
@@ -3045,6 +2894,7 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:J3">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -3062,7 +2912,6 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{A828BF16-483F-4D4E-9495-2CA9B3364129}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{7258BEA6-ED48-4865-ABE1-549AEBEE5A82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3089,60 +2938,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="31.5" thickBot="1">
-      <c r="B1" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+        <v>51</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="2:16" ht="16" thickBot="1">
       <c r="B3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="I3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1">
       <c r="B4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
       <c r="I4" s="22">
         <f>C11</f>
         <v>13</v>
@@ -3155,15 +3004,15 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1">
       <c r="B5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+        <v>57</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
       <c r="I5" s="22">
         <f>D11</f>
         <v>7</v>
@@ -3176,85 +3025,85 @@
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1">
       <c r="B6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
       <c r="I6" s="26"/>
       <c r="J6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="M6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="N6" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>63</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
+        <v>63</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
       <c r="I7" s="22">
         <v>0</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="24"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
       <c r="I8" s="22">
         <v>0</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="2:16" ht="46.5">
       <c r="B10" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>8</v>
@@ -3263,13 +3112,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>71</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>72</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
@@ -3331,55 +3180,55 @@
       <c r="P13" s="33"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="44" t="s">
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3406,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B1AD54-5180-497F-AABC-551D1E392A8D}">
   <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3416,296 +3265,296 @@
     <col min="2" max="2" width="13.90625" customWidth="1"/>
     <col min="3" max="3" width="32.54296875" customWidth="1"/>
     <col min="4" max="4" width="53.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B5" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="53" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="53" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B7" s="50">
+        <v>2</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="56" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B8" s="50">
+        <v>3</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B9" s="50">
+        <v>4</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="56" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B10" s="50">
+        <v>5</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="56" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B11" s="50">
+        <v>6</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B12" s="50">
+        <v>7</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B13" s="50">
+        <v>8</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="56" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B14" s="50">
+        <v>9</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B5" s="95" t="s">
+      <c r="D14" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="E14" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="56" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B15" s="50">
+        <v>10</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D15" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E15" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="56" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B16" s="50">
+        <v>11</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" s="54" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B6" s="51">
-        <v>1</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="D16" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="54" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B7" s="51">
-        <v>2</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="57" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B8" s="51">
-        <v>3</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="57" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B9" s="51">
-        <v>4</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="57" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B10" s="51">
-        <v>5</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="57" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="51">
-        <v>6</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" s="57" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B12" s="51">
-        <v>7</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="57" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B13" s="51">
-        <v>8</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="57" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B14" s="51">
-        <v>9</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="57" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B15" s="51">
-        <v>10</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="57" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B16" s="51">
-        <v>11</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>49</v>
+      <c r="E16" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="58"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="58"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="58"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="58"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="58"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="58"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="58"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="58"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="58"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="58"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="58"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="58"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="58"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="58"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="58"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="58"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="58"/>
+      <c r="B41" s="57"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="58"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="58"/>
+      <c r="B46" s="57"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="58"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3719,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5163D75-2B94-4F61-B4BD-DDB0C3999709}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
